--- a/plm python control/wrappers/multiBeamData_All_ON.xlsx
+++ b/plm python control/wrappers/multiBeamData_All_ON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLM\plm python control\wrappers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E40301-2E91-40C9-963D-78DFEBC8BDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA2A598-73C1-44BF-A0CD-BCAD048F52A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="1275" windowWidth="9360" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27045" yWindow="600" windowWidth="14505" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B466" workbookViewId="0">
-      <selection activeCell="G473" sqref="G473"/>
+    <sheetView tabSelected="1" topLeftCell="B331" workbookViewId="0">
+      <selection activeCell="F338" sqref="F338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>88.58</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>10.496499999999999</v>
+        <v>10.494</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>86.38</v>
+        <v>88.12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>10.85</v>
+        <v>10.821999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>85.16</v>
+        <v>86.32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>11.18</v>
+        <v>11.175000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>84.04</v>
+        <v>85.778999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>11.545999999999999</v>
+        <v>11.5365</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>81.459999999999994</v>
+        <v>82.88</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>11.936999999999999</v>
+        <v>11.929</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>80.06</v>
+        <v>81.260000000000005</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>12.3705</v>
+        <v>12.362500000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>78.819999999999993</v>
+        <v>80.16</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="D71">
-        <v>12.807499999999999</v>
+        <v>12.811</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>71.400000000000006</v>
+        <v>72.52</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="D82">
-        <v>10.497</v>
+        <v>10.4895</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="D88">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>70.012</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>10.827</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="D94">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>68.772000000000006</v>
+        <v>69.891999999999996</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>11.144</v>
+        <v>11.146000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>8</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>67.352000000000004</v>
+        <v>68.492000000000004</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="D115">
-        <v>11.505000000000001</v>
+        <v>11.5045</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="D116">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>8</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>66.731999999999999</v>
+        <v>67.552000000000007</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="D126">
-        <v>11.897</v>
+        <v>11.897500000000001</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>4</v>
       </c>
       <c r="D127">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
         <v>8</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>65.272000000000006</v>
+        <v>66.251999999999995</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="D137">
-        <v>12.327500000000001</v>
+        <v>12.324999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="D138">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2214,7 +2214,7 @@
         <v>8</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>64.292000000000002</v>
+        <v>65.531999999999996</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2270,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="D148">
-        <v>12.804</v>
+        <v>12.7735</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
         <v>4</v>
       </c>
       <c r="D149">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>59.08</v>
+        <v>59.78</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -2410,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="D159">
-        <v>10.448499999999999</v>
+        <v>10.436</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="D160">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
         <v>8</v>
       </c>
       <c r="D165">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>58.231999999999999</v>
+        <v>59.472000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -2550,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="D170">
-        <v>10.778</v>
+        <v>10.765000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -2564,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="D171">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>58.171999999999997</v>
+        <v>58.712000000000003</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -2690,7 +2690,7 @@
         <v>2</v>
       </c>
       <c r="D181">
-        <v>11.101000000000001</v>
+        <v>11.095000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>4</v>
       </c>
       <c r="D182">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -2774,7 +2774,7 @@
         <v>8</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -2816,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>56.911999999999999</v>
+        <v>57.911999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>2</v>
       </c>
       <c r="D192">
-        <v>11.445</v>
+        <v>11.4475</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
         <v>4</v>
       </c>
       <c r="D193">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
         <v>8</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>56.131999999999998</v>
+        <v>56.792000000000002</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="D203">
-        <v>11.84</v>
+        <v>11.842000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -2984,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="D204">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3054,7 +3054,7 @@
         <v>8</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>55.351999999999997</v>
+        <v>56.052</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -3110,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="D214">
-        <v>12.2685</v>
+        <v>12.265499999999999</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="D215">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,7 @@
         <v>8</v>
       </c>
       <c r="D220">
-        <v>0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>54.652000000000001</v>
+        <v>55.512</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="D225">
-        <v>12.731</v>
+        <v>12.7235</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -3264,7 +3264,7 @@
         <v>4</v>
       </c>
       <c r="D226">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -3334,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="D231">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>50.66</v>
+        <v>51.44</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -3390,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="D236">
-        <v>10.416</v>
+        <v>10.407500000000001</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -3404,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="D237">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>8</v>
       </c>
       <c r="D242">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>50.411999999999999</v>
+        <v>50.792000000000002</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,7 +3530,7 @@
         <v>2</v>
       </c>
       <c r="D247">
-        <v>10.736000000000001</v>
+        <v>10.734999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,7 +3544,7 @@
         <v>4</v>
       </c>
       <c r="D248">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,7 +3614,7 @@
         <v>8</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -3656,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>49.572000000000003</v>
+        <v>50.112000000000002</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -3670,7 +3670,7 @@
         <v>2</v>
       </c>
       <c r="D258">
-        <v>11.084</v>
+        <v>11.081</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="D259">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,7 +3754,7 @@
         <v>8</v>
       </c>
       <c r="D264">
-        <v>1.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>48.652000000000001</v>
+        <v>49.411999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -3810,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="D269">
-        <v>11.425000000000001</v>
+        <v>11.423999999999999</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -3824,7 +3824,7 @@
         <v>4</v>
       </c>
       <c r="D270">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,7 +3894,7 @@
         <v>8</v>
       </c>
       <c r="D275">
-        <v>1.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -3936,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>48.231999999999999</v>
+        <v>48.731999999999999</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="D281">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -4034,7 +4034,7 @@
         <v>8</v>
       </c>
       <c r="D286">
-        <v>0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>47.572000000000003</v>
+        <v>48.152000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -4104,7 +4104,7 @@
         <v>4</v>
       </c>
       <c r="D292">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -4174,7 +4174,7 @@
         <v>8</v>
       </c>
       <c r="D297">
-        <v>0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="D301">
-        <v>47.171999999999997</v>
+        <v>47.832000000000001</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,7 +4244,7 @@
         <v>4</v>
       </c>
       <c r="D303">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -4314,7 +4314,7 @@
         <v>8</v>
       </c>
       <c r="D308">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="D312">
-        <v>44.411999999999999</v>
+        <v>44.795000000000002</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -4370,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="D313">
-        <v>10.4015</v>
+        <v>10.384499999999999</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -4384,7 +4384,7 @@
         <v>4</v>
       </c>
       <c r="D314">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -4496,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="D323">
-        <v>43.811999999999998</v>
+        <v>44.351999999999997</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -4510,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="D324">
-        <v>10.7265</v>
+        <v>10.7095</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -4524,7 +4524,7 @@
         <v>4</v>
       </c>
       <c r="D325">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -4636,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="D334">
-        <v>43.411999999999999</v>
+        <v>43.832000000000001</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -4650,7 +4650,7 @@
         <v>2</v>
       </c>
       <c r="D335">
-        <v>11.0405</v>
+        <v>11.042</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -4664,7 +4664,7 @@
         <v>4</v>
       </c>
       <c r="D336">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">

--- a/plm python control/wrappers/multiBeamData_All_ON.xlsx
+++ b/plm python control/wrappers/multiBeamData_All_ON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLM\plm python control\wrappers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA2A598-73C1-44BF-A0CD-BCAD048F52A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBF43B2-B231-4D75-BA50-939176FE136B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27045" yWindow="600" windowWidth="14505" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B331" workbookViewId="0">
-      <selection activeCell="F338" sqref="F338"/>
+    <sheetView tabSelected="1" topLeftCell="B463" workbookViewId="0">
+      <selection activeCell="G471" sqref="G471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4454,7 +4454,7 @@
         <v>8</v>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -4594,7 +4594,7 @@
         <v>8</v>
       </c>
       <c r="D330">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -4734,7 +4734,7 @@
         <v>8</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="D345">
-        <v>43.252000000000002</v>
+        <v>43.531999999999996</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -4804,7 +4804,7 @@
         <v>4</v>
       </c>
       <c r="D347">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -4874,7 +4874,7 @@
         <v>8</v>
       </c>
       <c r="D352">
-        <v>1.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="D356">
-        <v>42.771999999999998</v>
+        <v>43.012</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -4930,7 +4930,7 @@
         <v>2</v>
       </c>
       <c r="D357">
-        <v>11.792999999999999</v>
+        <v>11.792</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -4944,7 +4944,7 @@
         <v>4</v>
       </c>
       <c r="D358">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,7 +5014,7 @@
         <v>8</v>
       </c>
       <c r="D363">
-        <v>1.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="D367">
-        <v>42.171999999999997</v>
+        <v>42.472000000000001</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -5070,7 +5070,7 @@
         <v>2</v>
       </c>
       <c r="D368">
-        <v>12.201499999999999</v>
+        <v>12.2005</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -5084,7 +5084,7 @@
         <v>4</v>
       </c>
       <c r="D369">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,7 +5154,7 @@
         <v>8</v>
       </c>
       <c r="D374">
-        <v>1.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="D378">
-        <v>41.671999999999997</v>
+        <v>42.091999999999999</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -5210,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="D379">
-        <v>12.656000000000001</v>
+        <v>12.659000000000001</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -5224,7 +5224,7 @@
         <v>4</v>
       </c>
       <c r="D380">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -5294,7 +5294,7 @@
         <v>8</v>
       </c>
       <c r="D385">
-        <v>1.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -5336,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="D389">
-        <v>39.372</v>
+        <v>39.771999999999998</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -5350,7 +5350,7 @@
         <v>2</v>
       </c>
       <c r="D390">
-        <v>10.372999999999999</v>
+        <v>10.366</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -5364,7 +5364,7 @@
         <v>4</v>
       </c>
       <c r="D391">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -5434,7 +5434,7 @@
         <v>8</v>
       </c>
       <c r="D396">
-        <v>1.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="D400">
-        <v>39.012</v>
+        <v>39.392000000000003</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -5490,7 +5490,7 @@
         <v>2</v>
       </c>
       <c r="D401">
-        <v>10.689</v>
+        <v>10.683999999999999</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -5504,7 +5504,7 @@
         <v>4</v>
       </c>
       <c r="D402">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -5574,7 +5574,7 @@
         <v>8</v>
       </c>
       <c r="D407">
-        <v>1.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="D411">
-        <v>38.692</v>
+        <v>39.012</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -5630,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="D412">
-        <v>11.0115</v>
+        <v>11.007</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -5644,7 +5644,7 @@
         <v>4</v>
       </c>
       <c r="D413">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -5714,7 +5714,7 @@
         <v>8</v>
       </c>
       <c r="D418">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="D422">
-        <v>38.332000000000001</v>
+        <v>38.631999999999998</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -5770,7 +5770,7 @@
         <v>2</v>
       </c>
       <c r="D423">
-        <v>11.3635</v>
+        <v>11.3605</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -5784,7 +5784,7 @@
         <v>4</v>
       </c>
       <c r="D424">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -5854,7 +5854,7 @@
         <v>8</v>
       </c>
       <c r="D429">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="D433">
-        <v>37.932000000000002</v>
+        <v>38.351999999999997</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -5910,7 +5910,7 @@
         <v>2</v>
       </c>
       <c r="D434">
-        <v>11.7395</v>
+        <v>11.743</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -5924,7 +5924,7 @@
         <v>4</v>
       </c>
       <c r="D435">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,7 +5994,7 @@
         <v>8</v>
       </c>
       <c r="D440">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -6036,7 +6036,7 @@
         <v>1</v>
       </c>
       <c r="D444">
-        <v>37.692</v>
+        <v>38.131999999999998</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -6050,7 +6050,7 @@
         <v>2</v>
       </c>
       <c r="D445">
-        <v>12.1515</v>
+        <v>12.157</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -6064,7 +6064,7 @@
         <v>4</v>
       </c>
       <c r="D446">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -6134,7 +6134,7 @@
         <v>8</v>
       </c>
       <c r="D451">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="D455">
-        <v>37.411999999999999</v>
+        <v>37.771999999999998</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -6190,7 +6190,7 @@
         <v>2</v>
       </c>
       <c r="D456">
-        <v>12.615500000000001</v>
+        <v>12.608000000000001</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -6204,7 +6204,7 @@
         <v>4</v>
       </c>
       <c r="D457">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -6274,7 +6274,7 @@
         <v>8</v>
       </c>
       <c r="D462">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -6414,7 +6414,7 @@
         <v>8</v>
       </c>
       <c r="D473">
-        <v>1.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -6554,7 +6554,7 @@
         <v>8</v>
       </c>
       <c r="D484">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -6694,7 +6694,7 @@
         <v>8</v>
       </c>
       <c r="D495">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -6834,7 +6834,7 @@
         <v>8</v>
       </c>
       <c r="D506">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -6974,7 +6974,7 @@
         <v>8</v>
       </c>
       <c r="D517">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -7114,7 +7114,7 @@
         <v>8</v>
       </c>
       <c r="D528">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -7254,7 +7254,7 @@
         <v>8</v>
       </c>
       <c r="D539">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/plm python control/wrappers/multiBeamData_All_ON.xlsx
+++ b/plm python control/wrappers/multiBeamData_All_ON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLM\plm python control\wrappers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBF43B2-B231-4D75-BA50-939176FE136B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E50A2A-1583-4059-9013-3F7145FDB957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27045" yWindow="600" windowWidth="14505" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="12150" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B463" workbookViewId="0">
-      <selection activeCell="G471" sqref="G471"/>
+    <sheetView tabSelected="1" topLeftCell="B255" workbookViewId="0">
+      <selection activeCell="G269" sqref="G269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="D55">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>8</v>
       </c>
       <c r="D66">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>8</v>
       </c>
       <c r="D77">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="D99">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>8</v>
       </c>
       <c r="D110">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>8</v>
       </c>
       <c r="D121">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
         <v>8</v>
       </c>
       <c r="D132">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2214,7 +2214,7 @@
         <v>8</v>
       </c>
       <c r="D143">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="D154">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
         <v>8</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -2774,7 +2774,7 @@
         <v>8</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
         <v>8</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3054,7 +3054,7 @@
         <v>8</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,7 @@
         <v>8</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -3334,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>8</v>
       </c>
       <c r="D242">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,7 +3614,7 @@
         <v>8</v>
       </c>
       <c r="D253">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,7 +3754,7 @@
         <v>8</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,7 +3894,7 @@
         <v>8</v>
       </c>
       <c r="D275">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -4034,7 +4034,7 @@
         <v>8</v>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -4174,7 +4174,7 @@
         <v>8</v>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -4314,7 +4314,7 @@
         <v>8</v>
       </c>
       <c r="D308">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="D466">
-        <v>35.512</v>
+        <v>35.811999999999998</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="D467">
-        <v>10.335000000000001</v>
+        <v>10.333500000000001</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -6344,7 +6344,7 @@
         <v>4</v>
       </c>
       <c r="D468">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -6414,7 +6414,7 @@
         <v>8</v>
       </c>
       <c r="D473">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="D477">
-        <v>35.091999999999999</v>
+        <v>35.432000000000002</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -6470,7 +6470,7 @@
         <v>2</v>
       </c>
       <c r="D478">
-        <v>10.657</v>
+        <v>10.6525</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -6484,7 +6484,7 @@
         <v>4</v>
       </c>
       <c r="D479">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -6554,7 +6554,7 @@
         <v>8</v>
       </c>
       <c r="D484">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -6596,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="D488">
-        <v>34.892000000000003</v>
+        <v>35.212000000000003</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -6610,7 +6610,7 @@
         <v>2</v>
       </c>
       <c r="D489">
-        <v>10.9855</v>
+        <v>10.974</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -6624,7 +6624,7 @@
         <v>4</v>
       </c>
       <c r="D490">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -6694,7 +6694,7 @@
         <v>8</v>
       </c>
       <c r="D495">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="D499">
-        <v>34.472000000000001</v>
+        <v>34.872</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -6750,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="D500">
-        <v>11.356</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -6764,7 +6764,7 @@
         <v>4</v>
       </c>
       <c r="D501">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -6834,7 +6834,7 @@
         <v>8</v>
       </c>
       <c r="D506">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -6876,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="D510">
-        <v>34.212000000000003</v>
+        <v>34.54</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -6890,7 +6890,7 @@
         <v>2</v>
       </c>
       <c r="D511">
-        <v>11.739000000000001</v>
+        <v>11.714</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -6904,7 +6904,7 @@
         <v>4</v>
       </c>
       <c r="D512">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -6974,7 +6974,7 @@
         <v>8</v>
       </c>
       <c r="D517">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -7016,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="D521">
-        <v>34.031999999999996</v>
+        <v>34.372</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -7030,7 +7030,7 @@
         <v>2</v>
       </c>
       <c r="D522">
-        <v>12.1305</v>
+        <v>12.1275</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -7044,7 +7044,7 @@
         <v>4</v>
       </c>
       <c r="D523">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -7114,7 +7114,7 @@
         <v>8</v>
       </c>
       <c r="D528">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -7156,7 +7156,7 @@
         <v>1</v>
       </c>
       <c r="D532">
-        <v>33.851999999999997</v>
+        <v>34.072000000000003</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -7170,7 +7170,7 @@
         <v>2</v>
       </c>
       <c r="D533">
-        <v>12.555</v>
+        <v>12.552</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -7184,7 +7184,7 @@
         <v>4</v>
       </c>
       <c r="D534">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -7254,7 +7254,7 @@
         <v>8</v>
       </c>
       <c r="D539">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
